--- a/dados/desp.xlsx
+++ b/dados/desp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="317">
   <si>
     <t>Sankey Despesas por Fonte</t>
   </si>
@@ -19,7 +19,7 @@
     <t>Filtro do relatório:</t>
   </si>
   <si>
-    <t>({Item Informação} = 9:DOTACAO INICIAL) E ({Mês Lançamento} ({Sigla Completa (MMM/AAAA)}) = "NOV/2021") E ({Órgão UGE - Orçam. Fiscal S/N} = PERTENCE)</t>
+    <t>({Item Informação} = 9:DOTACAO INICIAL) E ({Mês Lançamento} ({Sigla Completa (MMM/AAAA)}) = "JAN/2024") E ({Órgão UGE - Orçam. Fiscal S/N} = PERTENCE)</t>
   </si>
   <si>
     <t>Páginas:</t>
@@ -31,7 +31,7 @@
     <t>Item Informação: 9:DOTACAO INICIAL</t>
   </si>
   <si>
-    <t>Mês Lançamento: NOV/2021</t>
+    <t>Mês Lançamento: JAN/2024</t>
   </si>
   <si>
     <t xml:space="preserve">Fonte Recursos Código</t>
@@ -46,10 +46,10 @@
     <t xml:space="preserve">Saldo - R$ (Item Informação)</t>
   </si>
   <si>
-    <t xml:space="preserve">00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECURSOS PRIMARIOS DE LIVRE APLICACAO</t>
+    <t xml:space="preserve">000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECURSOS LIVRES DA UNIAO</t>
   </si>
   <si>
     <t xml:space="preserve">Pessoal Ativo</t>
@@ -79,373 +79,889 @@
     <t xml:space="preserve">Investimentos</t>
   </si>
   <si>
+    <t xml:space="preserve">Amortização da Dívida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserva de Contingência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECURSOS LIVRES DA SEGURIDADE SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATIVIDADES-FIM DA SEGURIDADE SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECURSOS UO APLICACAO SEGURIDADE SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSIST.SAUDE SUP.SERV.CIV.AT.INAT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSIST.MED.-HOSP.MILITARES F.ARMADAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSIST.SOC.E SAUDE PMDF E DE SEUS DEPENDENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREVENCAO DE ACIDENTES DE TRANSITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUC.PUB., COM PRIORIDADE EDUC.BASICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FISCALIZACAO SEGURANCA DO TRAFEGO AQUAVIARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSIST.MED.-HOSP.SEGURADOS VIT. ACID.TRANSITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESTINACOES DA CIDE-COMBUSTIVEIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUTENCAO E DESENVOLVIMENTO DO ENSINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.PARA APLIC.DESPESAS DE CAPITAL DO PROAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.FS DEST.EDUC.PUB.,PRIOR.EDUC.BAS.E SAUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASA DA MOEDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRF ENT.DELEG.FUNC.COMP.REL.REC.HID.DOM.UNIAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORG.ENT.GOV.FED.RESP.FISC.DISTR.GRAT.PREMIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNAPOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIN.,ENG.TRAF. E CAMPO,POL.,FISC.EDUC.TRAN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FISCALIZACAO PROD.CONTROLADOS PELO EXERCITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENSOES MILITARES DA UNIAO E EX-TERRITORIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENSOES MILITARES E REMUN.INAT.MILIT.DO FCDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REAP.CUST.AT.CONT.FISC.PROD.QUIM.REP.TRAF.DR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESENV.,ELETR.E EXT.RURAL E FISC.SOC.COOP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERV.AFETOS AS ATIVID.ESPECIFICAS DA JUSTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN.EST.SERV.GEOL.GEOF.APL.PROSP.COMB.FOSSEIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSA, PARA O DESENVOLV.DE ATIVID.AUDIOVISUAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNDAF - PGFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNDAF - RFB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROAP - PROG.ADM.PATR.IMOB.UNIAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESPORTO-SUPERAVIT VINC.AMORT.PGTO.DIV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACOES E SERVICOS PUBLICOS DE SAUDE - ASPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELHORIA DOS SERVICOS DE RADIODIFUSAO PUBLICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDADES DE CONSERVACAO DO SNUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FISC.E SUP.ATIV.ENTIDADES FECHADAS PREV.COMP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGURO-DESEMPREGO, ABONO SALARIAL E PREV.SOC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAMAS DE DESENVOLVIMENTO ECONOMICO-BNDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPITALIZACAO DO FUNDO SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACORDO FCA-INFRA.LIG.APERF.POL.TRANSP.FERROV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECURSOS DO FISTEL DESTINADOS AO FUST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN.EST.,ATIV.E SERV.LEV.GEOL.BAS.TERRIT.NAC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTUDOS DE PLANEJ.DA EXPANSAO SIST.ENERGETICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.PROP.UO EXCL.DESP.CAP.SEG.SOC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.PROP.UO PARA APLIC. EM SEGURIDADE SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECURSOS PROPRIOS LIVRES DA UO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juros</t>
   </si>
   <si>
-    <t xml:space="preserve">Amortização da Dívida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reserva de Contingência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSFERENCIAS DO IR E DO IPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSFERENCIA DO IMPOSTO TERRITORIAL RURAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRIB.PARA O FUNDO DE SAUDE PMDF E CBMDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUNDO SOCIAL-PARC.DEST.EDUCACAO PUBL.E SAUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIDE-COMBUSTIVEIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRIBUICAO DO SALARIO-EDUCACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.OUTORGA DIREITOS DE USO RECURSOS HIDRICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.ORIUNDOS CONTR.VOLUNTARIAS MONTEPIO CIVIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEITAS DE CONCURSOS DE PROGNOSTICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPOSTO SOBRE OPERACOES FINANCEIRAS-OURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRIB.SOBRE A ARREC.FUNDOS INVEST.REGIONAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRIB.PARA O CUSTEIO DAS PENSOES MILITARES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUSTAS JUDICIAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECURSOS DE CONCESSOES E PERMISSOES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRIB.PARA O DESENV.DA IND.CINEMAT.NACIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECURSOS DESTINADOS AO FUNDAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.PROGRAMA ADMINISTRACAO PATRIM.IMOBILIARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPENSACOES FINANC.PELA UTILIZ.REC.HIDRICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTA-PARTE ADIC. FRETE RENOV.MARINHA MERCANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.VINC.A APLIC.EM OUTRAS POLITICAS PUBLICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALIENACAO DE BENS APREENDIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRIBUICOES PARA OS PROGRAMAS PIS/PASEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPENSACOES FINANC.PELA EXPLOR.REC.MINERAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMP.FIN.PELA PROD.DE PETR.,GAS NAT.E OUTROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TITULOS DE RESP.DO TN-REFINANC.DIV.PUB.FED.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TITULOS DE RESPONSAB.DO TN-OUTRAS APLICACOES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPERACOES DE CREDITO EXTERNAS-EM MOEDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPERACOES DE CREDITO EXTERNAS-BENS/SERVICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.PROPRIOS PRIMARIOS DE LIVRE APLICACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECURSOS LIVRES DA SEGURIDADE SOCIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESULTADO DO BANCO CENTRAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.DEST.ATIVIDADES-FINS DA SEGURIDADE SOCIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECURSOS DO REGIME GERAL DE PREVID.SOCIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRIB.DO SERV.PARA O PLANO SEG.SOC.SERV.PUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.OP.OF.CRED.-RET.REF.DIV.MED.LONGO PRAZOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECURSOS DAS OPERACOES OFICIAIS DE CREDITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.UNIAO DECOR.ALIEN.BENS E DIR.DO PATR.PUB.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.PROP.DECOR.ALIEN.BENS E DIR.DO PATR.PUB.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECURSOS FINANCEIROS DE APLICACAO VINCULADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTR.PATRONAL PARA O PLANO SEG.SOC.SERV.PUB.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.PROPRIOS PRIMARIOS APLICACAO ESPECIFICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.OP.OF.CREDITO-RETORNO OP.DE CRED.-BEA/BIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUTRAS CONTRIBUICOES ECONOMICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.OP.OF.CREDITO-RETORNO OP.CRED.-EST.E MUN.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TX.MUL.PODER POLICIA E MUL.PROV.PROC.JUD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAXAS POR SERVICOS PUBLICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUTRAS CONTRIBUICOES SOCIAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUNDO DE FISCALIZACAO DAS TELECOMUNICACOES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECURSOS PROPRIOS FINANCEIROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECURSOS DE CONVENIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAGAMENTO PELO USO DE RECURSOS HIDRICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONT.S/REMUN.DEV.AO TRAB.E REL.S/JUSTA CAUSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.VINC.A APLIC.EM POLITICAS PUB.ESPECIFICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALIENACAO DE TITULOS E VALORES MOBILIARIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECURSOS FINANCEIROS DE LIVRE APLICACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUTO DA APLIC.DOS REC.A CONTA DO SAL.EDUC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOACOES PARA O COMBATE A FOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOACOES DE ENTIDADES INTERNACIONAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOAC.PESSOAS FISICAS E INSTIT.PUB.E PRIV.NAC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIVIDENDOS DA UNIAO</t>
+    <t xml:space="preserve">051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.PROP.UO APLIC.EXCL.EM DESP.DE CAPITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECURSOS LIVRES DA UO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.LIVRES UO, VEDADO PGTO DIV. E PESSOAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENEFICIOS DO RGPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENEFICIOS DO RPPS DO FCDF-CONTRIB.SEGURADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENEFICIOS DO RPPS DA UNIAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDENIZ.IMOV.RURAIS DESAPROP.INTERESSE SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGURANCA NUCLEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.PROP.DEST.SERVICOS PROTECAO DE CULTIVARES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLITICA DE GARANTIA DE PRECOS MINIMOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROG.FINANCIADOS POR OP.OFICIAIS DE CREDITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COBERTURA DE DEFICITS NAS OPERACOES DA PGPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDE BALIZAMENTO MARITIMO, FLUVIAL E LACUSTRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.PROP.DEST.FOMENTO PESQ.REALIZ.PES.FISICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNRH, SINGREH E GESTAO REDE HIDROMETER.NAC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTAO DAS UNID.DE CONSERV.DE USO SUSTENTAVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FNDF-FUNDO NACIONAL DE DESENVOLVIM.FLORESTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.MULTAS INFR.AMB.A SEREM REVERT.A FUNDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLE E FISCALIZACAO AMBIENTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPLEMENTACAO DA PNRH E DO SINGREH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATIV.GESTAO AMB.REL.PETRO E MUDANCA DO CLIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENC.RESPONS.FUNDO CONTINGENTE EXTINTA RFFSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCCCN-COM.COORD.DA CRIACAO DO CAVALO NACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.PETROLEO SEM DEST.DEFINIDA-LIMINAR STF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FISC.E PROTECAO AREAS DE PRODUCAO DE PETROLEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.DEST.PREF.AT.GEST.AMB.REL.CAD.PROD.PETRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPANSAO DO SISTEMA ENERGETICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONVENIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATIV.AVAL.IMPAC.ECON.SOC.APL.REC.FUNDOS REG.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPAR.DANOS A INTERESSES DIFUSOS E COLETIVOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.APLIC.DESP.CAP.PROG.HABIT.CARATER SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APL.COM.EXT., CONF.DIRETRIZES CAMEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDE - CONTA DE DESENVOLVIMENTO ENERGETICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.AEROVIARIO-EXEC.E MANUT.SIST.AEROV.NACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.AEROVIARIO-DESENV.ENSINO PROFISS.AERONAUT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESP.REPR.E EST.TEC.EM APOIO POS.BRAS.NA IMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENC.INTERV.UNIAO DES.MM E IND.CONSTR.REP.NAV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTECAO AMBIENTAL REGIOES IMPACT.MINERACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBATE A FOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOACOES ESTRANGEIRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOACOES NACIONAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-AERONAUTICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-AGRONEGOCIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-BIOTECNOLOGIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-SAUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-VERDE AMARELO-PROG.INTER.UNIV.-EMP.INOV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-VERDE AMARELO-PROG.INOVACAO PARA COMPETIT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-AQUAVIARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-INFRA-ACOES TRANSVERSAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-MINERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECURSOS DO FISTEL DESTINADOS AO CT-ESPACIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-PETRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-ENERGIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-HIDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-INFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-AMAZONIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PESQUISAS, ESTUDOS E PROJETOS NO CETEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PESQ.,DESENV.E TECN.INTERESSE DESENV.REGIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJ.COM.MARINHA CONSTR.REP.EMBARC.EST.BRAS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECURSOS PROPRIOS DESTINADOS AO SNSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-INFRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECURSOS DO FISTEL DESTINADOS AO CT-INFRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.FISTEL LIVRE APLIC.NA ANATEL E NO TESOURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.LIVRES UO-SUP.VINC.AMORT.PGTO.DIV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.UO APL.SEG.SOC.-SUPERAVIT PGTO.DIV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEG.SOCIAL-SUPERAVIT VINC.AMORT.PGTO.DIV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNDO GARANTIDOR DO FIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENEFICIOS DO RPPS DO FCDF - CONTRIB.PATRONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSIST.SOC.E A SAUDE CBMDF E SEUS DEPENDENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUSTEIO DAS COMISSOES DE AVALIACAO - INEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUC.PUB., COM PRIOR.EDUC.BASICA E SAUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECURSOS LIVRES DO BANCO CENTRAL DO BRASIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUCACAO BASICA, VEDADO PGTO DESP.COM PESSOAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.PROP.EDUC.BASICA, VEDADO PAGTO PESSOAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT-TRANSPORTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELHORIA DA PRESTACAO JURISDICIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA CONSTITUCIONAL DO FPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA CONSTITUCIONAL DO FPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA CONSTITUCIONAL IPI EXPORTACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSF.CONSTIT.DE PARCELA ITR MUNICIPIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA CONSTITUCIONAL FNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA CONSTITUCIONAL FCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA CONSTITUCIONAL FNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRF.CONST.APL.PRG.FIN.SET.PROD.NE-SEMIARIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSF.PARCELA DA CIDE COMB.AOS EST. E DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSF.COTAS EST.E MUN.DO SALARIO-EDUCACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSF.CONSTIT.IOF OURO PARA EST.,DF E MUN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRF.PARC.CONCESS.FLOREST.PARA EST., DF E MUN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRF.PARC.COMP.FIN.UT.REC.HID.EST/DF/MUN-DEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRF.PARC.COMP.FIN.UT.REC.HID.EST/DF/MUN-ITAIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRF.PARC.COMP.FIN.EXPL.REC.MIN.EST.,DF E MUN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSF.PARC.ROY.PETRO.EST/DF/MUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIAS DO FNSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSF.PARCELA DAS TX OCUPACAO AOS MUN.E DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGAMENTO DIVIDA PUBLICA MOBILIARIA FEDERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMORTIZACAO DA DIVIDA PUBLICA FEDERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFINANCIAMENTO DA DIVIDA PUBLICA FEDERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEM.APL.REC.TIT.TN,EXC.REFIN.DIV.PUB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJ.CONTRATUAL OP.CRED.EXTERNA EM MOEDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJ.CONTRATUAL OP.CRED.EXTERNA BENS/SERVICOS</t>
   </si>
 </sst>
 </file>
@@ -497,11 +1013,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D259"/>
+  <dimension ref="A1:D331"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -572,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>98045501108</v>
+        <v>225022707486</v>
       </c>
     </row>
     <row r="13">
@@ -586,7 +1105,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>6793800076</v>
+        <v>77361876496</v>
       </c>
     </row>
     <row r="14">
@@ -600,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="1">
-        <v>26579381</v>
+        <v>20812888674</v>
       </c>
     </row>
     <row r="15">
@@ -614,7 +1133,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>5528277335</v>
+        <v>58431612358</v>
       </c>
     </row>
     <row r="16">
@@ -628,7 +1147,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>117737920</v>
+        <v>13296797713</v>
       </c>
     </row>
     <row r="17">
@@ -642,7 +1161,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="1">
-        <v>23448074728.16</v>
+        <v>109408346894.39</v>
       </c>
     </row>
     <row r="18">
@@ -656,7 +1175,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="1">
-        <v>2767225776.56</v>
+        <v>10780462220.83</v>
       </c>
     </row>
     <row r="19">
@@ -670,7 +1189,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>4853903894</v>
       </c>
     </row>
     <row r="20">
@@ -684,7 +1203,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="1">
-        <v>19579958542.99</v>
+        <v>66367148459</v>
       </c>
     </row>
     <row r="21">
@@ -698,7 +1217,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="1">
-        <v>30671437</v>
+        <v>179720224637</v>
       </c>
     </row>
     <row r="22">
@@ -712,3283 +1231,4291 @@
         <v>23</v>
       </c>
       <c r="D22" s="1">
-        <v>184044626106</v>
+        <v>3394482198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1">
-        <v>49755506</v>
+        <v>7505444121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1">
-        <v>230662702412</v>
+        <v>15564404101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1">
-        <v>14641520873</v>
+        <v>78194842474</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" s="1">
-        <v>1998344352</v>
+        <v>18959424693</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="1">
-        <v>39287129</v>
+        <v>2530227239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1">
-        <v>7199991316</v>
+        <v>42467660680</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="1">
-        <v>109985473</v>
+        <v>11352835454</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>11300137148</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>96402094895</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1">
-        <v>578013085</v>
+        <v>245708854257</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1">
-        <v>213509051</v>
+        <v>9858934636</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1">
-        <v>7684497428</v>
+        <v>459416948</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1">
-        <v>12830302095</v>
+        <v>7248822</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1">
-        <v>685294934</v>
+        <v>1254904320</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1">
-        <v>82489311</v>
+        <v>109126166</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="1">
-        <v>131564</v>
+        <v>17090362</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D39" s="1">
-        <v>1807149070</v>
+        <v>17370000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D40" s="1">
-        <v>304380795</v>
+        <v>263626362</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1">
-        <v>9580586</v>
+        <v>32540980</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="1">
-        <v>804367688</v>
+        <v>4981829</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" s="1">
-        <v>49733717</v>
+        <v>2267086510</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>88195112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1">
-        <v>1203545609</v>
+        <v>32335685</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D46" s="1">
-        <v>85777149</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D47" s="1">
-        <v>40823986</v>
+        <v>2332532809</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>971221</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1">
-        <v>821498</v>
+        <v>95806</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D50" s="1">
-        <v>8098605268</v>
+        <v>11007802</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>117000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>1399462991</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D53" s="1">
-        <v>523027064</v>
+        <v>315170803</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
         <v>49</v>
       </c>
-      <c r="B54" t="s">
-        <v>50</v>
-      </c>
       <c r="C54" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>5717100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D55" s="1">
-        <v>520488048</v>
+        <v>294795279</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
         <v>51</v>
       </c>
-      <c r="B56" t="s">
-        <v>52</v>
-      </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>15241086133</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>154487914</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>11378194</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="1">
-        <v>13987741.16</v>
+        <v>151360841</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" s="1">
-        <v>143985197.84</v>
+        <v>327490</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D61" s="1">
-        <v>4000000</v>
+        <v>671747877</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D62" s="1">
-        <v>108954668</v>
+        <v>465202840</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D63" s="1">
-        <v>3081595932</v>
+        <v>54010544</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D64" s="1">
-        <v>15000000</v>
+        <v>151339937</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D65" s="1">
-        <v>425000000</v>
+        <v>1096884226</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>768842068</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D67" s="1">
-        <v>255851363</v>
+        <v>931941966</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D68" s="1">
-        <v>7991333201</v>
+        <v>39170587</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D69" s="1">
-        <v>550301840</v>
+        <v>25829413</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D70" s="1">
-        <v>119200000</v>
+        <v>20952932</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D71" s="1">
-        <v>1198497683</v>
+        <v>9497193100</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D72" s="1">
-        <v>56659372</v>
+        <v>547050679</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D73" s="1">
-        <v>5621262</v>
+        <v>23651248</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>280783756</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="1">
-        <v>99550835</v>
+        <v>714213260</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D76" s="1">
-        <v>2631325048</v>
+        <v>1524923716</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
         <v>21</v>
       </c>
       <c r="D77" s="1">
-        <v>121607780</v>
+        <v>831701103</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>55608501</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D79" s="1">
-        <v>69710835</v>
+        <v>1025194589</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D80" s="1">
-        <v>1170000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D81" s="1">
-        <v>1842023883</v>
+        <v>481128525</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>7659843</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D83" s="1">
-        <v>34730564</v>
+        <v>2761715853</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="1">
-        <v>370342879</v>
+        <v>6559879706</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" s="1">
-        <v>632784596</v>
+        <v>342755592</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D86" s="1">
-        <v>22411602</v>
+        <v>2006161234</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D87" s="1">
-        <v>24038706</v>
+        <v>367599155</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D88" s="1">
-        <v>0</v>
+        <v>5115336668</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D89" s="1">
-        <v>332607532</v>
+        <v>53344247</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D90" s="1">
-        <v>107577972</v>
+        <v>64753054</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="1">
-        <v>165261042</v>
+        <v>259105448</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D92" s="1">
-        <v>17775101</v>
+        <v>39305173</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D93" s="1">
-        <v>36955699793</v>
+        <v>72338910</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B94" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>203964460</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D95" s="1">
-        <v>19883123220</v>
+        <v>777510936</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B96" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D96" s="1">
-        <v>14201716449</v>
+        <v>28038451</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B97" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>30150000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B98" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D98" s="1">
-        <v>62687141</v>
+        <v>177332725</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B99" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D99" s="1">
-        <v>4754107721</v>
+        <v>116827296</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D100" s="1">
-        <v>62618813</v>
+        <v>925106</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>52476668024</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B102" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D102" s="1">
-        <v>402928236</v>
+        <v>17361368776</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D103" s="1">
-        <v>719143057</v>
+        <v>27153338081</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B104" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D104" s="1">
-        <v>1761788109</v>
+        <v>15241086135</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D105" s="1">
-        <v>114205490</v>
+        <v>120385983</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D106" s="1">
-        <v>30391751085</v>
+        <v>18543758</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C107" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="1">
-        <v>8699252116</v>
+        <v>210493519</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D108" s="1">
-        <v>0</v>
+        <v>116604636</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D109" s="1">
-        <v>1087621199</v>
+        <v>12452171</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="B110" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C110" t="s">
         <v>23</v>
       </c>
       <c r="D110" s="1">
-        <v>1603521711208</v>
+        <v>197712560</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D111" s="1">
-        <v>80634987106</v>
+        <v>326769367</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D112" s="1">
-        <v>38598533848</v>
+        <v>2239300</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D113" s="1">
-        <v>287026550</v>
+        <v>3618124652</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D114" s="1">
-        <v>20646456657</v>
+        <v>407187729</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B115" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D115" s="1">
-        <v>1046096822</v>
+        <v>359937884</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B116" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D116" s="1">
-        <v>43038759151.21</v>
+        <v>276292402</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D117" s="1">
-        <v>2247399365.79</v>
+        <v>25590808163</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B118" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D118" s="1">
-        <v>258644704442</v>
+        <v>2105000142</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D119" s="1">
-        <v>14076332146</v>
+        <v>10260861</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B120" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D120" s="1">
-        <v>359655391967</v>
+        <v>627473789</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B121" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D121" s="1">
-        <v>33000000</v>
+        <v>86583686</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B122" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D122" s="1">
-        <v>20231938</v>
+        <v>422490170</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B123" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D123" s="1">
-        <v>128302827</v>
+        <v>401788658</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B124" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D124" s="1">
-        <v>476959332</v>
+        <v>913192276</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B125" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C125" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D125" s="1">
-        <v>1876724077</v>
+        <v>4477212</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B126" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D126" s="1">
-        <v>422717628</v>
+        <v>10198495283</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B127" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D127" s="1">
-        <v>178602916</v>
+        <v>133284631</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B128" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D128" s="1">
-        <v>876389893</v>
+        <v>16882377685</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B129" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="D129" s="1">
-        <v>315610703</v>
+        <v>5454932</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B130" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D130" s="1">
-        <v>5712550250.16</v>
+        <v>40199027</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B131" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D131" s="1">
-        <v>872253.84</v>
+        <v>5109154699</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B132" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D132" s="1">
-        <v>54354793</v>
+        <v>65095998</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B133" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C133" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D133" s="1">
-        <v>1142801733</v>
+        <v>131981428</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B134" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D134" s="1">
-        <v>0</v>
+        <v>2037834921</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B135" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C135" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D135" s="1">
-        <v>3290740716</v>
+        <v>116833475</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B136" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D136" s="1">
-        <v>11572350487</v>
+        <v>20129</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B137" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D137" s="1">
-        <v>53577844158</v>
+        <v>28984164</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B138" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D138" s="1">
-        <v>8090637425</v>
+        <v>1769755705</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B139" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D139" s="1">
-        <v>1839572382</v>
+        <v>213680356</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B140" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D140" s="1">
-        <v>6420035</v>
+        <v>8018995442</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B141" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D141" s="1">
-        <v>5962011951</v>
+        <v>40456575972</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="B142" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D142" s="1">
-        <v>888553</v>
+        <v>163865012</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="B143" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C143" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D143" s="1">
-        <v>4598426369</v>
+        <v>49670544</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="B144" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C144" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D144" s="1">
-        <v>1952003298</v>
+        <v>359757957</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="B145" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D145" s="1">
-        <v>0</v>
+        <v>637306026295</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="B146" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C146" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="1">
-        <v>11668442572</v>
+        <v>201664695</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="B147" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D147" s="1">
-        <v>110830664684</v>
+        <v>41214075297</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B148" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D148" s="1">
-        <v>101118212830</v>
+        <v>128628371</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B149" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D149" s="1">
-        <v>1749529152</v>
+        <v>1915736</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="B150" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D150" s="1">
-        <v>16448609950</v>
+        <v>18193905</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="B151" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="C151" t="s">
         <v>21</v>
       </c>
       <c r="D151" s="1">
-        <v>1465766177</v>
+        <v>661519</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="B152" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="C152" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D152" s="1">
-        <v>410401519532</v>
+        <v>2777409</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="B153" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="C153" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D153" s="1">
-        <v>17856469632</v>
+        <v>65168928</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="B154" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C154" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D154" s="1">
-        <v>21921148005</v>
+        <v>27345236</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="B155" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C155" t="s">
         <v>21</v>
       </c>
       <c r="D155" s="1">
-        <v>2195041969</v>
+        <v>837185154</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B156" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="C156" t="s">
         <v>23</v>
       </c>
       <c r="D156" s="1">
-        <v>13625733</v>
+        <v>252000000</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="B157" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="C157" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D157" s="1">
-        <v>1004185</v>
+        <v>189242736</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="B158" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D158" s="1">
-        <v>19506067</v>
+        <v>20757264</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="B159" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D159" s="1">
-        <v>55158682</v>
+        <v>13536149</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="B160" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="C160" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D160" s="1">
-        <v>355680624</v>
+        <v>47062704</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="B161" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D161" s="1">
-        <v>57234036</v>
+        <v>4273044</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="B162" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="C162" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D162" s="1">
-        <v>0</v>
+        <v>187732</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="B163" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="C163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D163" s="1">
-        <v>39368028</v>
+        <v>93604657</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="B164" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="C164" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D164" s="1">
-        <v>22787134318</v>
+        <v>13817583</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="B165" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C165" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D165" s="1">
-        <v>29998632</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="B166" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D166" s="1">
-        <v>2266937388</v>
+        <v>4908791</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="B167" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D167" s="1">
-        <v>23885513</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="B168" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D168" s="1">
-        <v>208671135</v>
+        <v>4016787</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="B169" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="C169" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D169" s="1">
-        <v>323459945</v>
+        <v>602964</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B170" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C170" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D170" s="1">
-        <v>0</v>
+        <v>59793896</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B171" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="C171" t="s">
         <v>18</v>
       </c>
       <c r="D171" s="1">
-        <v>180469956.58</v>
+        <v>277825900</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B172" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D172" s="1">
-        <v>2742178.42</v>
+        <v>9662026</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B173" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="C173" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D173" s="1">
-        <v>425086029</v>
+        <v>10056224</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="B174" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C174" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D174" s="1">
-        <v>0</v>
+        <v>150668247</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="B175" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C175" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D175" s="1">
-        <v>6056945725</v>
+        <v>48659872</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="B176" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="C176" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D176" s="1">
-        <v>7914944</v>
+        <v>18655243</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="B177" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="C177" t="s">
         <v>23</v>
       </c>
       <c r="D177" s="1">
-        <v>25207496539</v>
+        <v>26037687</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="B178" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="C178" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D178" s="1">
-        <v>684578161</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="B179" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="C179" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D179" s="1">
-        <v>282242457</v>
+        <v>4087274</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="B180" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="C180" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D180" s="1">
-        <v>25010412</v>
+        <v>322363674</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="B181" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D181" s="1">
-        <v>39731887</v>
+        <v>278419</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="B182" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C182" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D182" s="1">
-        <v>2430966676.81</v>
+        <v>694236174</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="B183" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="C183" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D183" s="1">
-        <v>278029299.17</v>
+        <v>118016</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="B184" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C184" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D184" s="1">
-        <v>294087028</v>
+        <v>8727590952</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="B185" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="C185" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D185" s="1">
-        <v>0</v>
+        <v>13098066</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="B186" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="C186" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D186" s="1">
-        <v>2604911985</v>
+        <v>1164066628</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="B187" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="C187" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D187" s="1">
-        <v>5989528</v>
+        <v>1066407873</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="B188" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="C188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D188" s="1">
-        <v>118425420</v>
+        <v>217846244</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="B189" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="C189" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D189" s="1">
-        <v>412914087</v>
+        <v>5756246</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="B190" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="C190" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D190" s="1">
-        <v>0</v>
+        <v>558848</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="B191" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="C191" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D191" s="1">
-        <v>6578967</v>
+        <v>320033350</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="B192" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="C192" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D192" s="1">
-        <v>297917212</v>
+        <v>25129047</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="B193" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="C193" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D193" s="1">
-        <v>508537670</v>
+        <v>25951149</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="B194" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="C194" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D194" s="1">
-        <v>0</v>
+        <v>26227620</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="B195" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="C195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D195" s="1">
-        <v>294377126</v>
+        <v>84826431</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="B196" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="C196" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D196" s="1">
-        <v>1403218005</v>
+        <v>191664</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="B197" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="C197" t="s">
         <v>18</v>
       </c>
       <c r="D197" s="1">
-        <v>171445427</v>
+        <v>38906807</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="B198" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="C198" t="s">
         <v>21</v>
       </c>
       <c r="D198" s="1">
-        <v>20520826</v>
+        <v>28268406</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="B199" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="C199" t="s">
         <v>23</v>
       </c>
       <c r="D199" s="1">
-        <v>0</v>
+        <v>543692119</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="B200" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="C200" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D200" s="1">
-        <v>262553694</v>
+        <v>36696219</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="B201" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="C201" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D201" s="1">
-        <v>100799627</v>
+        <v>5228631</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="B202" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="C202" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D202" s="1">
-        <v>0</v>
+        <v>29579455</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="B203" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="C203" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D203" s="1">
-        <v>18515937</v>
+        <v>4098030</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="B204" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="C204" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D204" s="1">
-        <v>11724740</v>
+        <v>493097956</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="B205" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="C205" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D205" s="1">
-        <v>11884843919</v>
+        <v>2398257538</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="B206" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="C206" t="s">
         <v>18</v>
       </c>
       <c r="D206" s="1">
-        <v>2261857951.17</v>
+        <v>6020000</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="B207" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="C207" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D207" s="1">
-        <v>2682203.83</v>
+        <v>15104591</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="B208" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C208" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D208" s="1">
-        <v>191735026</v>
+        <v>7470654</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="B209" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C209" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D209" s="1">
-        <v>19760921429</v>
+        <v>203534418</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="B210" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="C210" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D210" s="1">
-        <v>3164460</v>
+        <v>1415240</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="B211" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="C211" t="s">
         <v>23</v>
       </c>
       <c r="D211" s="1">
-        <v>15703800</v>
+        <v>17619586</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="B212" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C212" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D212" s="1">
-        <v>3924963866</v>
+        <v>4049659172</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="B213" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="C213" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D213" s="1">
-        <v>1363074</v>
+        <v>13577945</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="B214" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="C214" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D214" s="1">
-        <v>25015515</v>
+        <v>5518</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="B215" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="C215" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D215" s="1">
-        <v>188140392</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="B216" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="C216" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D216" s="1">
-        <v>5530625</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="B217" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="C217" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D217" s="1">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="B218" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="C218" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D218" s="1">
-        <v>160178660.19</v>
+        <v>18108899</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="B219" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D219" s="1">
-        <v>30009051.81</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="B220" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="C220" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D220" s="1">
-        <v>5561720</v>
+        <v>2312057</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="B221" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="C221" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D221" s="1">
-        <v>615130</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="B222" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="C222" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D222" s="1">
-        <v>50754704</v>
+        <v>11900000</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="B223" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C223" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D223" s="1">
-        <v>161986118</v>
+        <v>22282266</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="B224" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C224" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D224" s="1">
-        <v>645832447</v>
+        <v>443596221</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="B225" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="C225" t="s">
         <v>18</v>
       </c>
       <c r="D225" s="1">
-        <v>1164952046</v>
+        <v>60225287</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="B226" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="C226" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D226" s="1">
-        <v>117217651</v>
+        <v>1026824516</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="B227" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="C227" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D227" s="1">
-        <v>8145449511</v>
+        <v>22282266</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="B228" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="C228" t="s">
         <v>21</v>
       </c>
       <c r="D228" s="1">
-        <v>703058024</v>
+        <v>443596221</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="B229" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="C229" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D229" s="1">
-        <v>0</v>
+        <v>57625287</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="B230" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="C230" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D230" s="1">
-        <v>1564370458</v>
+        <v>1029424516</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="B231" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D231" s="1">
-        <v>0</v>
+        <v>980372085</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="B232" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="C232" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D232" s="1">
-        <v>0</v>
+        <v>1504313178</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="B233" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="C233" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D233" s="1">
-        <v>0</v>
+        <v>190475281</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="B234" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="C234" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D234" s="1">
-        <v>707939514</v>
+        <v>430696034</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="B235" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="C235" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D235" s="1">
-        <v>322057118</v>
+        <v>9714717</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="B236" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="C236" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D236" s="1">
-        <v>156998749</v>
+        <v>104494237</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="B237" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="C237" t="s">
         <v>18</v>
       </c>
       <c r="D237" s="1">
-        <v>252585305</v>
+        <v>165413695</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="B238" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D238" s="1">
-        <v>270157552</v>
+        <v>322155154</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="B239" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="C239" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D239" s="1">
-        <v>0</v>
+        <v>9750000</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="B240" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="C240" t="s">
         <v>21</v>
       </c>
       <c r="D240" s="1">
-        <v>6968547350</v>
+        <v>44561781</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="B241" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="C241" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D241" s="1">
-        <v>31335289478</v>
+        <v>1567368</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="B242" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="C242" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D242" s="1">
-        <v>1610306350</v>
+        <v>271899272.61</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="B243" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="C243" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D243" s="1">
-        <v>55604871</v>
+        <v>2292281.39</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="B244" t="s">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="C244" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D244" s="1">
-        <v>9873</v>
+        <v>979498020</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="B245" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="C245" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D245" s="1">
-        <v>4013</v>
+        <v>32500000</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="B246" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="C246" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D246" s="1">
-        <v>2799455</v>
+        <v>453521093</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="B247" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="C247" t="s">
         <v>18</v>
       </c>
       <c r="D247" s="1">
-        <v>2240000</v>
+        <v>3250000</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="B248" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="C248" t="s">
         <v>21</v>
       </c>
       <c r="D248" s="1">
-        <v>0</v>
+        <v>101353129</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="B249" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="C249" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D249" s="1">
-        <v>3160000</v>
+        <v>9100000</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="B250" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="C250" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D250" s="1">
-        <v>1081241</v>
+        <v>25151968</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="B251" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="C251" t="s">
         <v>18</v>
       </c>
       <c r="D251" s="1">
-        <v>40268780</v>
+        <v>5200000</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="B252" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="C252" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D252" s="1">
-        <v>1000000</v>
+        <v>12173326</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="B253" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="C253" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D253" s="1">
-        <v>29776100</v>
+        <v>339397</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="B254" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="C254" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D254" s="1">
-        <v>49568214</v>
+        <v>121862109</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="B255" t="s">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="C255" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D255" s="1">
-        <v>2921072284</v>
+        <v>935685</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="B256" t="s">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="C256" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D256" s="1">
-        <v>6815835328</v>
+        <v>15513748</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>231</v>
+      </c>
+      <c r="B257" t="s">
+        <v>232</v>
+      </c>
+      <c r="C257" t="s">
+        <v>23</v>
+      </c>
+      <c r="D257" s="1">
+        <v>64315</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>233</v>
+      </c>
+      <c r="B258" t="s">
+        <v>234</v>
+      </c>
+      <c r="C258" t="s">
+        <v>18</v>
+      </c>
+      <c r="D258" s="1">
+        <v>106075325</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>233</v>
+      </c>
+      <c r="B259" t="s">
+        <v>234</v>
+      </c>
+      <c r="C259" t="s">
+        <v>21</v>
+      </c>
+      <c r="D259" s="1">
+        <v>42679547</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>233</v>
+      </c>
+      <c r="B260" t="s">
+        <v>234</v>
+      </c>
+      <c r="C260" t="s">
+        <v>23</v>
+      </c>
+      <c r="D260" s="1">
+        <v>327115771</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>235</v>
+      </c>
+      <c r="B261" t="s">
+        <v>236</v>
+      </c>
+      <c r="C261" t="s">
+        <v>18</v>
+      </c>
+      <c r="D261" s="1">
+        <v>8642616</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>237</v>
+      </c>
+      <c r="B262" t="s">
+        <v>238</v>
+      </c>
+      <c r="C262" t="s">
+        <v>18</v>
+      </c>
+      <c r="D262" s="1">
+        <v>554918486</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>237</v>
+      </c>
+      <c r="B263" t="s">
+        <v>238</v>
+      </c>
+      <c r="C263" t="s">
+        <v>21</v>
+      </c>
+      <c r="D263" s="1">
+        <v>1092227356</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>239</v>
+      </c>
+      <c r="B264" t="s">
+        <v>240</v>
+      </c>
+      <c r="C264" t="s">
+        <v>21</v>
+      </c>
+      <c r="D264" s="1">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>241</v>
+      </c>
+      <c r="B265" t="s">
+        <v>242</v>
+      </c>
+      <c r="C265" t="s">
+        <v>18</v>
+      </c>
+      <c r="D265" s="1">
+        <v>305492504</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>241</v>
+      </c>
+      <c r="B266" t="s">
+        <v>242</v>
+      </c>
+      <c r="C266" t="s">
+        <v>21</v>
+      </c>
+      <c r="D266" s="1">
+        <v>25458637</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>241</v>
+      </c>
+      <c r="B267" t="s">
+        <v>242</v>
+      </c>
+      <c r="C267" t="s">
+        <v>23</v>
+      </c>
+      <c r="D267" s="1">
+        <v>6034080</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>243</v>
+      </c>
+      <c r="B268" t="s">
+        <v>244</v>
+      </c>
+      <c r="C268" t="s">
+        <v>18</v>
+      </c>
+      <c r="D268" s="1">
+        <v>869237136</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>243</v>
+      </c>
+      <c r="B269" t="s">
+        <v>244</v>
+      </c>
+      <c r="C269" t="s">
+        <v>19</v>
+      </c>
+      <c r="D269" s="1">
+        <v>28524612</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>243</v>
+      </c>
+      <c r="B270" t="s">
+        <v>244</v>
+      </c>
+      <c r="C270" t="s">
+        <v>21</v>
+      </c>
+      <c r="D270" s="1">
+        <v>423472856</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>243</v>
+      </c>
+      <c r="B271" t="s">
+        <v>244</v>
+      </c>
+      <c r="C271" t="s">
+        <v>23</v>
+      </c>
+      <c r="D271" s="1">
+        <v>672852893</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>245</v>
+      </c>
+      <c r="B272" t="s">
+        <v>246</v>
+      </c>
+      <c r="C272" t="s">
+        <v>15</v>
+      </c>
+      <c r="D272" s="1">
+        <v>9404855</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>245</v>
+      </c>
+      <c r="B273" t="s">
+        <v>246</v>
+      </c>
+      <c r="C273" t="s">
+        <v>18</v>
+      </c>
+      <c r="D273" s="1">
+        <v>2687102</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>247</v>
+      </c>
+      <c r="B274" t="s">
+        <v>248</v>
+      </c>
+      <c r="C274" t="s">
+        <v>14</v>
+      </c>
+      <c r="D274" s="1">
+        <v>2234861325</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>247</v>
+      </c>
+      <c r="B275" t="s">
+        <v>248</v>
+      </c>
+      <c r="C275" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275" s="1">
+        <v>799157820</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>247</v>
+      </c>
+      <c r="B276" t="s">
+        <v>248</v>
+      </c>
+      <c r="C276" t="s">
+        <v>17</v>
+      </c>
+      <c r="D276" s="1">
+        <v>80183604</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>247</v>
+      </c>
+      <c r="B277" t="s">
+        <v>248</v>
+      </c>
+      <c r="C277" t="s">
+        <v>18</v>
+      </c>
+      <c r="D277" s="1">
+        <v>711634588</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>247</v>
+      </c>
+      <c r="B278" t="s">
+        <v>248</v>
+      </c>
+      <c r="C278" t="s">
+        <v>21</v>
+      </c>
+      <c r="D278" s="1">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>249</v>
+      </c>
+      <c r="B279" t="s">
+        <v>250</v>
+      </c>
+      <c r="C279" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279" s="1">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>249</v>
+      </c>
+      <c r="B280" t="s">
+        <v>250</v>
+      </c>
+      <c r="C280" t="s">
+        <v>23</v>
+      </c>
+      <c r="D280" s="1">
+        <v>57009536</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>251</v>
+      </c>
+      <c r="B281" t="s">
+        <v>252</v>
+      </c>
+      <c r="C281" t="s">
+        <v>13</v>
+      </c>
+      <c r="D281" s="1">
+        <v>235500632</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>253</v>
+      </c>
+      <c r="B282" t="s">
+        <v>254</v>
+      </c>
+      <c r="C282" t="s">
+        <v>18</v>
+      </c>
+      <c r="D282" s="1">
+        <v>23803118</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>255</v>
+      </c>
+      <c r="B283" t="s">
+        <v>256</v>
+      </c>
+      <c r="C283" t="s">
+        <v>16</v>
+      </c>
+      <c r="D283" s="1">
+        <v>26214023</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>257</v>
+      </c>
+      <c r="B284" t="s">
+        <v>258</v>
+      </c>
+      <c r="C284" t="s">
+        <v>16</v>
+      </c>
+      <c r="D284" s="1">
+        <v>185467526</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>259</v>
+      </c>
+      <c r="B285" t="s">
+        <v>260</v>
+      </c>
+      <c r="C285" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" s="1">
+        <v>29230008</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>261</v>
+      </c>
+      <c r="B286" t="s">
+        <v>262</v>
+      </c>
+      <c r="C286" t="s">
+        <v>16</v>
+      </c>
+      <c r="D286" s="1">
+        <v>6940263402</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>261</v>
+      </c>
+      <c r="B287" t="s">
+        <v>262</v>
+      </c>
+      <c r="C287" t="s">
+        <v>21</v>
+      </c>
+      <c r="D287" s="1">
+        <v>748810989</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>261</v>
+      </c>
+      <c r="B288" t="s">
+        <v>262</v>
+      </c>
+      <c r="C288" t="s">
+        <v>23</v>
+      </c>
+      <c r="D288" s="1">
+        <v>4992828595</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>263</v>
+      </c>
+      <c r="B289" t="s">
+        <v>264</v>
+      </c>
+      <c r="C289" t="s">
+        <v>16</v>
+      </c>
+      <c r="D289" s="1">
+        <v>145923369</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>265</v>
+      </c>
+      <c r="B290" t="s">
+        <v>266</v>
+      </c>
+      <c r="C290" t="s">
+        <v>21</v>
+      </c>
+      <c r="D290" s="1">
+        <v>24528</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>267</v>
+      </c>
+      <c r="B291" t="s">
+        <v>268</v>
+      </c>
+      <c r="C291" t="s">
+        <v>18</v>
+      </c>
+      <c r="D291" s="1">
+        <v>298311176</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>267</v>
+      </c>
+      <c r="B292" t="s">
+        <v>268</v>
+      </c>
+      <c r="C292" t="s">
+        <v>21</v>
+      </c>
+      <c r="D292" s="1">
+        <v>27109312</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>269</v>
+      </c>
+      <c r="B293" t="s">
+        <v>270</v>
+      </c>
+      <c r="C293" t="s">
+        <v>19</v>
+      </c>
+      <c r="D293" s="1">
+        <v>221406752925</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>271</v>
+      </c>
+      <c r="B294" t="s">
+        <v>272</v>
+      </c>
+      <c r="C294" t="s">
+        <v>19</v>
+      </c>
+      <c r="D294" s="1">
+        <v>190409807511</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>273</v>
+      </c>
+      <c r="B295" t="s">
+        <v>274</v>
+      </c>
+      <c r="C295" t="s">
+        <v>19</v>
+      </c>
+      <c r="D295" s="1">
+        <v>6794382276</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>275</v>
+      </c>
+      <c r="B296" t="s">
+        <v>276</v>
+      </c>
+      <c r="C296" t="s">
+        <v>19</v>
+      </c>
+      <c r="D296" s="1">
+        <v>3277791000</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>277</v>
+      </c>
+      <c r="B297" t="s">
+        <v>278</v>
+      </c>
+      <c r="C297" t="s">
+        <v>21</v>
+      </c>
+      <c r="D297" s="1">
+        <v>5313762067</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>279</v>
+      </c>
+      <c r="B298" t="s">
+        <v>280</v>
+      </c>
+      <c r="C298" t="s">
+        <v>21</v>
+      </c>
+      <c r="D298" s="1">
+        <v>5313762067</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>281</v>
+      </c>
+      <c r="B299" t="s">
+        <v>282</v>
+      </c>
+      <c r="C299" t="s">
+        <v>21</v>
+      </c>
+      <c r="D299" s="1">
+        <v>7970643107</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>283</v>
+      </c>
+      <c r="B300" t="s">
+        <v>284</v>
+      </c>
+      <c r="C300" t="s">
+        <v>21</v>
+      </c>
+      <c r="D300" s="1">
+        <v>7970643107</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>285</v>
+      </c>
+      <c r="B301" t="s">
+        <v>286</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" s="1">
+        <v>817169402</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>287</v>
+      </c>
+      <c r="B302" t="s">
+        <v>288</v>
+      </c>
+      <c r="C302" t="s">
+        <v>19</v>
+      </c>
+      <c r="D302" s="1">
+        <v>19022854482</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>289</v>
+      </c>
+      <c r="B303" t="s">
+        <v>290</v>
+      </c>
+      <c r="C303" t="s">
+        <v>19</v>
+      </c>
+      <c r="D303" s="1">
+        <v>63663885</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>291</v>
+      </c>
+      <c r="B304" t="s">
+        <v>292</v>
+      </c>
+      <c r="C304" t="s">
+        <v>19</v>
+      </c>
+      <c r="D304" s="1">
+        <v>13817583</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>293</v>
+      </c>
+      <c r="B305" t="s">
+        <v>294</v>
+      </c>
+      <c r="C305" t="s">
+        <v>19</v>
+      </c>
+      <c r="D305" s="1">
+        <v>1830157868</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>295</v>
+      </c>
+      <c r="B306" t="s">
+        <v>296</v>
+      </c>
+      <c r="C306" t="s">
+        <v>19</v>
+      </c>
+      <c r="D306" s="1">
+        <v>1111805125</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>297</v>
+      </c>
+      <c r="B307" t="s">
+        <v>298</v>
+      </c>
+      <c r="C307" t="s">
+        <v>19</v>
+      </c>
+      <c r="D307" s="1">
+        <v>6110075328</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>299</v>
+      </c>
+      <c r="B308" t="s">
+        <v>300</v>
+      </c>
+      <c r="C308" t="s">
+        <v>19</v>
+      </c>
+      <c r="D308" s="1">
+        <v>65206966691</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>301</v>
+      </c>
+      <c r="B309" t="s">
+        <v>302</v>
+      </c>
+      <c r="C309" t="s">
+        <v>19</v>
+      </c>
+      <c r="D309" s="1">
+        <v>346895676</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>301</v>
+      </c>
+      <c r="B310" t="s">
+        <v>302</v>
+      </c>
+      <c r="C310" t="s">
+        <v>21</v>
+      </c>
+      <c r="D310" s="1">
+        <v>737153318</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>303</v>
+      </c>
+      <c r="B311" t="s">
+        <v>304</v>
+      </c>
+      <c r="C311" t="s">
+        <v>19</v>
+      </c>
+      <c r="D311" s="1">
+        <v>172304305</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>305</v>
+      </c>
+      <c r="B312" t="s">
+        <v>306</v>
+      </c>
+      <c r="C312" t="s">
+        <v>114</v>
+      </c>
+      <c r="D312" s="1">
+        <v>9622</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>305</v>
+      </c>
+      <c r="B313" t="s">
+        <v>306</v>
+      </c>
+      <c r="C313" t="s">
+        <v>22</v>
+      </c>
+      <c r="D313" s="1">
+        <v>37230987645</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>307</v>
+      </c>
+      <c r="B314" t="s">
+        <v>308</v>
+      </c>
+      <c r="C314" t="s">
+        <v>22</v>
+      </c>
+      <c r="D314" s="1">
+        <v>45656440355</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>309</v>
+      </c>
+      <c r="B315" t="s">
+        <v>310</v>
+      </c>
+      <c r="C315" t="s">
+        <v>22</v>
+      </c>
+      <c r="D315" s="1">
+        <v>1746506931081</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>311</v>
+      </c>
+      <c r="B316" t="s">
+        <v>312</v>
+      </c>
+      <c r="C316" t="s">
+        <v>16</v>
+      </c>
+      <c r="D316" s="1">
+        <v>124534122</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>311</v>
+      </c>
+      <c r="B317" t="s">
+        <v>312</v>
+      </c>
+      <c r="C317" t="s">
+        <v>17</v>
+      </c>
+      <c r="D317" s="1">
+        <v>663094177</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>311</v>
+      </c>
+      <c r="B318" t="s">
+        <v>312</v>
+      </c>
+      <c r="C318" t="s">
+        <v>18</v>
+      </c>
+      <c r="D318" s="1">
+        <v>2208581948</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>311</v>
+      </c>
+      <c r="B319" t="s">
+        <v>312</v>
+      </c>
+      <c r="C319" t="s">
+        <v>20</v>
+      </c>
+      <c r="D319" s="1">
+        <v>201223291421</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>311</v>
+      </c>
+      <c r="B320" t="s">
+        <v>312</v>
+      </c>
+      <c r="C320" t="s">
+        <v>21</v>
+      </c>
+      <c r="D320" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>311</v>
+      </c>
+      <c r="B321" t="s">
+        <v>312</v>
+      </c>
+      <c r="C321" t="s">
+        <v>114</v>
+      </c>
+      <c r="D321" s="1">
+        <v>436123904197</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>311</v>
+      </c>
+      <c r="B322" t="s">
+        <v>312</v>
+      </c>
+      <c r="C322" t="s">
+        <v>22</v>
+      </c>
+      <c r="D322" s="1">
+        <v>36695000000</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>311</v>
+      </c>
+      <c r="B323" t="s">
+        <v>312</v>
+      </c>
+      <c r="C323" t="s">
+        <v>23</v>
+      </c>
+      <c r="D323" s="1">
+        <v>1465878</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>313</v>
+      </c>
+      <c r="B324" t="s">
+        <v>314</v>
+      </c>
+      <c r="C324" t="s">
+        <v>18</v>
+      </c>
+      <c r="D324" s="1">
+        <v>61778291</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>313</v>
+      </c>
+      <c r="B325" t="s">
+        <v>314</v>
+      </c>
+      <c r="C325" t="s">
+        <v>21</v>
+      </c>
+      <c r="D325" s="1">
+        <v>603268646</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>313</v>
+      </c>
+      <c r="B326" t="s">
+        <v>314</v>
+      </c>
+      <c r="C326" t="s">
+        <v>22</v>
+      </c>
+      <c r="D326" s="1">
+        <v>7720935049</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>313</v>
+      </c>
+      <c r="B327" t="s">
+        <v>314</v>
+      </c>
+      <c r="C327" t="s">
+        <v>23</v>
+      </c>
+      <c r="D327" s="1">
+        <v>1286299</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>315</v>
+      </c>
+      <c r="B328" t="s">
+        <v>316</v>
+      </c>
+      <c r="C328" t="s">
+        <v>21</v>
+      </c>
+      <c r="D328" s="1">
+        <v>1707575632</v>
       </c>
     </row>
   </sheetData>
